--- a/biology/Zoologie/Heliconius_leucadia/Heliconius_leucadia.xlsx
+++ b/biology/Zoologie/Heliconius_leucadia/Heliconius_leucadia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius leucadia est un insecte lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Heliconius.
 </t>
@@ -511,14 +523,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Heliconius leucadia a été décrit par Henry Walter Bates en 1862[1].
-Sous-espèces
-Heliconius leucadia leucadia (Bates); présent au Brésil
-Heliconius leucadia andromeda Neukirchen, 1996; présent en Équateur.
-Heliconius leucadia birgitae Neukirchen, 1996; présent au Pérou.
-Heliconius leucadia pseudorhea Staudinger, 1896; présent au Brésil[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius leucadia a été décrit par Henry Walter Bates en 1862.
+</t>
         </is>
       </c>
     </row>
@@ -543,85 +553,98 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Heliconius leucadia leucadia (Bates); présent au Brésil
+Heliconius leucadia andromeda Neukirchen, 1996; présent en Équateur.
+Heliconius leucadia birgitae Neukirchen, 1996; présent au Pérou.
+Heliconius leucadia pseudorhea Staudinger, 1896; présent au Brésil.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Heliconius_leucadia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_leucadia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius leucadia est un grand papillon au corps fin et aux ailes antérieures allongées à bord interne concave qui présente une ressemblance (mimétisme Müllérien) avec Heliconius sara[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius leucadia est un grand papillon au corps fin et aux ailes antérieures allongées à bord interne concave qui présente une ressemblance (mimétisme Müllérien) avec Heliconius sara.
 Le dessus est de couleur noire suffusé de bleu avec aux ailes antérieures deux courtes bandes blanc crème veinées de noir une proche de l'apex et une allant du bord costal à l'angle interne.
 Le revers est marron avec les mêmes deux courtes bandes blanc crème aux ailes antérieures et des marques rouge proches dans l'aire basale.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Heliconius_leucadia</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Heliconius_leucadia</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Passifloraceae dont Passiflora auriculata[2].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Passifloraceae dont Passiflora auriculata.
 Sur les autres projets Wikimedia :
 Heliconius leucadia, sur Wikimedia CommonsHeliconius leucadia, sur Wikispecies
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Heliconius_leucadia</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_leucadia</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius leucadia est présent en Équateur, au Brésil et au Pérou[1].
-Biotope
-Heliconius leucadia réside dans la canopée de la forêt primaire[2].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -643,10 +666,82 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius leucadia est présent en Équateur, au Brésil et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heliconius_leucadia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_leucadia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius leucadia réside dans la canopée de la forêt primaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Heliconius_leucadia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_leucadia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
